--- a/FullReport.xlsx
+++ b/FullReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>CLARION_ID</t>
   </si>
@@ -86,13 +86,7 @@
     <t>W01W</t>
   </si>
   <si>
-    <t>CHEM</t>
-  </si>
-  <si>
-    <t>Tutoring</t>
-  </si>
-  <si>
-    <t>W05V</t>
+    <t>Group Meeting</t>
   </si>
 </sst>
 </file>
@@ -752,37 +746,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10612938</v>
+        <v>10648065</v>
       </c>
       <c r="B11" s="1">
-        <v>41585</v>
+        <v>41612</v>
       </c>
       <c r="C11" s="2">
-        <v>0.68263888888888891</v>
+        <v>0.79196759259259253</v>
       </c>
       <c r="D11" s="2">
-        <v>0.76597222222222217</v>
+        <v>0.79228009259259258</v>
       </c>
       <c r="E11" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="F11">
         <v>2138</v>
       </c>
       <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>411</v>
+      </c>
+      <c r="J11" t="s">
         <v>20</v>
-      </c>
-      <c r="H11">
-        <v>145</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
